--- a/BootcampMS_users.xlsx
+++ b/BootcampMS_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvardhan/bootcampMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512C3C5E-6F7F-F643-B54A-AF3167E5990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D5139-33BB-8C48-8440-CECEC6F7D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E93D0A14-A0D3-DD41-ACE6-233D0E00DB24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -46,37 +46,67 @@
     <t>role</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user1@email.com</t>
-  </si>
-  <si>
-    <t>user2@email.com</t>
-  </si>
-  <si>
-    <t>user3@email.com</t>
-  </si>
-  <si>
-    <t>user4@email.com</t>
-  </si>
-  <si>
-    <t>user5@email.com</t>
-  </si>
-  <si>
     <t>NCG</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Vardhan</t>
+  </si>
+  <si>
+    <t>Vishesh</t>
+  </si>
+  <si>
+    <t>Ketki</t>
+  </si>
+  <si>
+    <t>Shashi</t>
+  </si>
+  <si>
+    <t>Archisha</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>tushar@email.com</t>
+  </si>
+  <si>
+    <t>anand@email.com</t>
+  </si>
+  <si>
+    <t>vardhan@email.com</t>
+  </si>
+  <si>
+    <t>vishesh@email.com</t>
+  </si>
+  <si>
+    <t>ketki@email.com</t>
+  </si>
+  <si>
+    <t>shashi@email.com</t>
+  </si>
+  <si>
+    <t>archisha@email.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>mentor@email.com</t>
+  </si>
+  <si>
+    <t>mentor</t>
   </si>
 </sst>
 </file>
@@ -448,7 +478,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C11" sqref="A7:C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,13 +499,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -494,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -516,23 +546,55 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
@@ -665,6 +727,10 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{3A169E83-277B-3547-A8C2-5DE394BCF9D0}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{F03EBA9E-2FDC-3F4B-BBF5-6F76DD283452}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2B98D5B3-F657-A148-A8E7-B46EB3E3C603}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{012F7203-2863-9E49-B929-87DF7C9D82FA}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{A348F680-DAE7-CE47-887F-806AA60A75BC}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{E389A811-EFC7-5E48-8F4F-9F2A5B0018DD}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B5DEA8B1-EB1E-B04E-81F4-2C96532400E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BootcampMS_users.xlsx
+++ b/BootcampMS_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvardhan/bootcampMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D5139-33BB-8C48-8440-CECEC6F7D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF08B4-5A22-D24B-8FD4-2860DF972051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E93D0A14-A0D3-DD41-ACE6-233D0E00DB24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>mentor</t>
+  </si>
+  <si>
+    <t>Mentor1</t>
+  </si>
+  <si>
+    <t>mentor1@email.com</t>
+  </si>
+  <si>
+    <t>Mentor2</t>
+  </si>
+  <si>
+    <t>mentor2@email.com</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,10 +609,26 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -731,6 +759,8 @@
     <hyperlink ref="B8" r:id="rId7" xr:uid="{A348F680-DAE7-CE47-887F-806AA60A75BC}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{E389A811-EFC7-5E48-8F4F-9F2A5B0018DD}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{B5DEA8B1-EB1E-B04E-81F4-2C96532400E7}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{D486BF01-98A8-6441-8DBE-507B0A71AB22}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{609BE04E-ED47-B94E-B2A6-EFA14E4A1BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BootcampMS_users.xlsx
+++ b/BootcampMS_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvardhan/bootcampMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF08B4-5A22-D24B-8FD4-2860DF972051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908399B6-1D3A-404F-ABA5-C3F00A9B42EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E93D0A14-A0D3-DD41-ACE6-233D0E00DB24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -49,76 +49,100 @@
     <t>NCG</t>
   </si>
   <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Vardhan</t>
-  </si>
-  <si>
-    <t>Vishesh</t>
-  </si>
-  <si>
-    <t>Ketki</t>
-  </si>
-  <si>
-    <t>Shashi</t>
-  </si>
-  <si>
-    <t>Archisha</t>
-  </si>
-  <si>
-    <t>Tushar</t>
-  </si>
-  <si>
-    <t>tushar@email.com</t>
-  </si>
-  <si>
-    <t>anand@email.com</t>
-  </si>
-  <si>
-    <t>vardhan@email.com</t>
-  </si>
-  <si>
-    <t>vishesh@email.com</t>
-  </si>
-  <si>
-    <t>ketki@email.com</t>
-  </si>
-  <si>
-    <t>shashi@email.com</t>
-  </si>
-  <si>
-    <t>archisha@email.com</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>admin@email.com</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Mentor</t>
-  </si>
-  <si>
-    <t>mentor@email.com</t>
-  </si>
-  <si>
     <t>mentor</t>
   </si>
   <si>
-    <t>Mentor1</t>
-  </si>
-  <si>
-    <t>mentor1@email.com</t>
-  </si>
-  <si>
-    <t>Mentor2</t>
-  </si>
-  <si>
-    <t>mentor2@email.com</t>
+    <t>Tushar Vardhan</t>
+  </si>
+  <si>
+    <t>Anand Kumar</t>
+  </si>
+  <si>
+    <t>Vardhan Gupta</t>
+  </si>
+  <si>
+    <t>Vishesh Agarwal</t>
+  </si>
+  <si>
+    <t>Ketki Fadnavis</t>
+  </si>
+  <si>
+    <t>Shashi Sad</t>
+  </si>
+  <si>
+    <t>Archisha Srivastava</t>
+  </si>
+  <si>
+    <t>Ram Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketan Mishra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaibhav Singh </t>
+  </si>
+  <si>
+    <t>Arohi Shinde</t>
+  </si>
+  <si>
+    <t>arohi@vmware.com</t>
+  </si>
+  <si>
+    <t>Krishna Goyal</t>
+  </si>
+  <si>
+    <t>Ratn Nema</t>
+  </si>
+  <si>
+    <t>Riddhi Rohra</t>
+  </si>
+  <si>
+    <t>riddhi@vmware.com</t>
+  </si>
+  <si>
+    <t>ratn@vmware.com</t>
+  </si>
+  <si>
+    <t>krishna@vmware.com</t>
+  </si>
+  <si>
+    <t>tushar@vmware.com</t>
+  </si>
+  <si>
+    <t>anand@vmware.com</t>
+  </si>
+  <si>
+    <t>vardhan@vmware.com</t>
+  </si>
+  <si>
+    <t>vishesh@vmware.com</t>
+  </si>
+  <si>
+    <t>ketki@vmware.com</t>
+  </si>
+  <si>
+    <t>shashi@vmware.com</t>
+  </si>
+  <si>
+    <t>archisha@vmware.com</t>
+  </si>
+  <si>
+    <t>admin@vmware.com</t>
+  </si>
+  <si>
+    <t>mentor@vmware.com</t>
+  </si>
+  <si>
+    <t>mentor1@vmware.com</t>
+  </si>
+  <si>
+    <t>mentor2@vmware.com</t>
   </si>
 </sst>
 </file>
@@ -490,11 +514,12 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="57.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,10 +536,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -522,10 +547,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -533,10 +558,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -544,10 +569,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -555,10 +580,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -566,10 +591,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -577,10 +602,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -588,59 +613,91 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -750,17 +807,21 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E16B6D99-8BF0-0D4E-9FA0-2801C1C2DC86}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{E9B819D8-6823-F14F-8C7E-0BF3F2D3E93F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3A169E83-277B-3547-A8C2-5DE394BCF9D0}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{F03EBA9E-2FDC-3F4B-BBF5-6F76DD283452}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2B98D5B3-F657-A148-A8E7-B46EB3E3C603}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{012F7203-2863-9E49-B929-87DF7C9D82FA}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{A348F680-DAE7-CE47-887F-806AA60A75BC}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{E389A811-EFC7-5E48-8F4F-9F2A5B0018DD}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{B5DEA8B1-EB1E-B04E-81F4-2C96532400E7}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{D486BF01-98A8-6441-8DBE-507B0A71AB22}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{609BE04E-ED47-B94E-B2A6-EFA14E4A1BD9}"/>
+    <hyperlink ref="B2" r:id="rId1" display="tushar@email.com" xr:uid="{E16B6D99-8BF0-0D4E-9FA0-2801C1C2DC86}"/>
+    <hyperlink ref="B5" r:id="rId2" display="vishesh@email.com" xr:uid="{E9B819D8-6823-F14F-8C7E-0BF3F2D3E93F}"/>
+    <hyperlink ref="B4" r:id="rId3" display="vardhan@email.com" xr:uid="{3A169E83-277B-3547-A8C2-5DE394BCF9D0}"/>
+    <hyperlink ref="B3" r:id="rId4" display="anand@email.com" xr:uid="{F03EBA9E-2FDC-3F4B-BBF5-6F76DD283452}"/>
+    <hyperlink ref="B6" r:id="rId5" display="ketki@email.com" xr:uid="{2B98D5B3-F657-A148-A8E7-B46EB3E3C603}"/>
+    <hyperlink ref="B7" r:id="rId6" display="shashi@email.com" xr:uid="{012F7203-2863-9E49-B929-87DF7C9D82FA}"/>
+    <hyperlink ref="B8" r:id="rId7" display="archisha@email.com" xr:uid="{A348F680-DAE7-CE47-887F-806AA60A75BC}"/>
+    <hyperlink ref="B9" r:id="rId8" display="admin@email.com" xr:uid="{E389A811-EFC7-5E48-8F4F-9F2A5B0018DD}"/>
+    <hyperlink ref="B10" r:id="rId9" display="mentor@email.com" xr:uid="{B5DEA8B1-EB1E-B04E-81F4-2C96532400E7}"/>
+    <hyperlink ref="B11" r:id="rId10" display="mentor1@email.com" xr:uid="{D486BF01-98A8-6441-8DBE-507B0A71AB22}"/>
+    <hyperlink ref="B12" r:id="rId11" display="mentor2@email.com" xr:uid="{609BE04E-ED47-B94E-B2A6-EFA14E4A1BD9}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{8A8BEEE0-A918-F34E-9244-7D4A4917DC2E}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{FA922A38-11A2-424D-B49A-FFCE023F0776}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{DBB6A25C-CBD4-ED43-B99F-EEEE5DF8D2DB}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{74CD2B01-4FB6-364D-AF51-4514240746A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
